--- a/Code/Results/Cases/Case_0_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9633281048025586</v>
+        <v>1.077097194815221</v>
       </c>
       <c r="D2">
-        <v>0.9784031211147362</v>
+        <v>1.08692038159443</v>
       </c>
       <c r="E2">
-        <v>0.979632188502501</v>
+        <v>1.081559366048155</v>
       </c>
       <c r="F2">
-        <v>0.9847434060996813</v>
+        <v>1.094771762609404</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.986663863062835</v>
+        <v>1.081993357721314</v>
       </c>
       <c r="K2">
-        <v>0.9901717663095285</v>
+        <v>1.089576980966634</v>
       </c>
       <c r="L2">
-        <v>0.9913827664543893</v>
+        <v>1.084229872939023</v>
       </c>
       <c r="M2">
-        <v>0.9964194626049878</v>
+        <v>1.097408259026152</v>
       </c>
       <c r="N2">
-        <v>0.9947773773672247</v>
+        <v>1.030231680001454</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9782423922764889</v>
+        <v>1.079629872643857</v>
       </c>
       <c r="D3">
-        <v>0.9926308389721769</v>
+        <v>1.089394839400521</v>
       </c>
       <c r="E3">
-        <v>0.9930081575293528</v>
+        <v>1.083873224589527</v>
       </c>
       <c r="F3">
-        <v>0.9991565130777337</v>
+        <v>1.097286405895668</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9993442923318997</v>
+        <v>1.084178798154688</v>
       </c>
       <c r="K3">
-        <v>1.003358886109566</v>
+        <v>1.091866945882647</v>
       </c>
       <c r="L3">
-        <v>1.003731288964662</v>
+        <v>1.086358584309257</v>
       </c>
       <c r="M3">
-        <v>1.00980019786544</v>
+        <v>1.099739819178847</v>
       </c>
       <c r="N3">
-        <v>0.9995582715736911</v>
+        <v>1.031019165620976</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9873577861205931</v>
+        <v>1.081261425383544</v>
       </c>
       <c r="D4">
-        <v>1.001336143724631</v>
+        <v>1.090989084607025</v>
       </c>
       <c r="E4">
-        <v>1.001191677543617</v>
+        <v>1.085363605105732</v>
       </c>
       <c r="F4">
-        <v>1.007977033104008</v>
+        <v>1.098906681326331</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.007090504337316</v>
+        <v>1.085585655038974</v>
       </c>
       <c r="K4">
-        <v>1.011418469374637</v>
+        <v>1.093341504606985</v>
       </c>
       <c r="L4">
-        <v>1.011275741314253</v>
+        <v>1.087728826230067</v>
       </c>
       <c r="M4">
-        <v>1.017980126384921</v>
+        <v>1.101241321932018</v>
       </c>
       <c r="N4">
-        <v>1.002475607418851</v>
+        <v>1.031524763764052</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9910758289345227</v>
+        <v>1.081945641130516</v>
       </c>
       <c r="D5">
-        <v>1.004888946969512</v>
+        <v>1.091657701279923</v>
       </c>
       <c r="E5">
-        <v>1.004531289622729</v>
+        <v>1.085988567002672</v>
       </c>
       <c r="F5">
-        <v>1.011577266758465</v>
+        <v>1.099586248201469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.010248943134358</v>
+        <v>1.086175400095348</v>
       </c>
       <c r="K5">
-        <v>1.014705593864333</v>
+        <v>1.093959729160351</v>
       </c>
       <c r="L5">
-        <v>1.014352096113838</v>
+        <v>1.08830319924295</v>
       </c>
       <c r="M5">
-        <v>1.021316796430959</v>
+        <v>1.101870881242414</v>
       </c>
       <c r="N5">
-        <v>1.003664103122336</v>
+        <v>1.031736384892076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.991693777151992</v>
+        <v>1.082060426328191</v>
       </c>
       <c r="D6">
-        <v>1.005479544782286</v>
+        <v>1.091769872243303</v>
       </c>
       <c r="E6">
-        <v>1.005086431298183</v>
+        <v>1.086093408635332</v>
       </c>
       <c r="F6">
-        <v>1.012175772701303</v>
+        <v>1.099700258182677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.010773811730092</v>
+        <v>1.086274322569442</v>
       </c>
       <c r="K6">
-        <v>1.015251900825426</v>
+        <v>1.094063434544671</v>
       </c>
       <c r="L6">
-        <v>1.014863333197612</v>
+        <v>1.088399541871633</v>
       </c>
       <c r="M6">
-        <v>1.021871364353387</v>
+        <v>1.101976490236201</v>
       </c>
       <c r="N6">
-        <v>1.003861540509316</v>
+        <v>1.031771862775023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9874078983261245</v>
+        <v>1.081270574479412</v>
       </c>
       <c r="D7">
-        <v>1.001384021047235</v>
+        <v>1.090998024936303</v>
       </c>
       <c r="E7">
-        <v>1.001236682980234</v>
+        <v>1.085371962082601</v>
       </c>
       <c r="F7">
-        <v>1.008025547992741</v>
+        <v>1.09891576794419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.007133078889386</v>
+        <v>1.085593541854631</v>
       </c>
       <c r="K7">
-        <v>1.011462774946271</v>
+        <v>1.093349771895773</v>
       </c>
       <c r="L7">
-        <v>1.011317208752788</v>
+        <v>1.087736507563335</v>
       </c>
       <c r="M7">
-        <v>1.0180250979428</v>
+        <v>1.101249740646277</v>
       </c>
       <c r="N7">
-        <v>1.002491632243459</v>
+        <v>1.031527595099062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9684885998181276</v>
+        <v>1.077954657831719</v>
       </c>
       <c r="D8">
-        <v>0.9833238302980074</v>
+        <v>1.087758091969407</v>
       </c>
       <c r="E8">
-        <v>0.9842583937188484</v>
+        <v>1.082342788236642</v>
       </c>
       <c r="F8">
-        <v>0.9897278364442126</v>
+        <v>1.095623048461126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9910521146077154</v>
+        <v>1.082733468584535</v>
       </c>
       <c r="K8">
-        <v>0.9947345316814921</v>
+        <v>1.090352403287819</v>
       </c>
       <c r="L8">
-        <v>0.9956559032646011</v>
+        <v>1.084950792022394</v>
       </c>
       <c r="M8">
-        <v>1.001048772343471</v>
+        <v>1.098197732932352</v>
       </c>
       <c r="N8">
-        <v>0.9964324010482593</v>
+        <v>1.030498643121221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9302346913052337</v>
+        <v>1.072053773455259</v>
       </c>
       <c r="D9">
-        <v>0.9469059782128296</v>
+        <v>1.081993998353002</v>
       </c>
       <c r="E9">
-        <v>0.9500223004996725</v>
+        <v>1.076950624113911</v>
       </c>
       <c r="F9">
-        <v>0.9528476564237521</v>
+        <v>1.089766126209511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9585167092743591</v>
+        <v>1.077636040674979</v>
       </c>
       <c r="K9">
-        <v>0.9609235094978369</v>
+        <v>1.085013493287195</v>
       </c>
       <c r="L9">
-        <v>0.9639818494503331</v>
+        <v>1.079985158096745</v>
       </c>
       <c r="M9">
-        <v>0.96675506380676</v>
+        <v>1.092762741635</v>
       </c>
       <c r="N9">
-        <v>0.9841604709452825</v>
+        <v>1.028654497441378</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8998211969821317</v>
+        <v>1.068077840655972</v>
       </c>
       <c r="D10">
-        <v>0.9180554511099013</v>
+        <v>1.078111355415872</v>
       </c>
       <c r="E10">
-        <v>0.9229117977565201</v>
+        <v>1.073316488630716</v>
       </c>
       <c r="F10">
-        <v>0.9236450414662417</v>
+        <v>1.085821691539815</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9326621967671903</v>
+        <v>1.074196275556258</v>
       </c>
       <c r="K10">
-        <v>0.9340806017613587</v>
+        <v>1.081412947653394</v>
       </c>
       <c r="L10">
-        <v>0.9388278914649278</v>
+        <v>1.076633851925781</v>
       </c>
       <c r="M10">
-        <v>0.9395448016871331</v>
+        <v>1.089098243217101</v>
       </c>
       <c r="N10">
-        <v>0.9744283415243705</v>
+        <v>1.027403246845007</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8848987513345525</v>
+        <v>1.066345544997929</v>
       </c>
       <c r="D11">
-        <v>0.9039365709017992</v>
+        <v>1.076419985771268</v>
       </c>
       <c r="E11">
-        <v>0.9096514228212067</v>
+        <v>1.071732899355284</v>
       </c>
       <c r="F11">
-        <v>0.9093581159312581</v>
+        <v>1.08410358040452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9199895259930843</v>
+        <v>1.072696360970624</v>
       </c>
       <c r="K11">
-        <v>0.9209299519268438</v>
+        <v>1.079843441168943</v>
       </c>
       <c r="L11">
-        <v>0.9265051022598064</v>
+        <v>1.075172400775277</v>
       </c>
       <c r="M11">
-        <v>0.9262189078995015</v>
+        <v>1.087501061105504</v>
       </c>
       <c r="N11">
-        <v>0.9696725232728258</v>
+        <v>1.026856044875795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8790118481785831</v>
+        <v>1.065700425458805</v>
       </c>
       <c r="D12">
-        <v>0.8983737377509889</v>
+        <v>1.075790150631391</v>
       </c>
       <c r="E12">
-        <v>0.9044284406152189</v>
+        <v>1.071143128613404</v>
       </c>
       <c r="F12">
-        <v>0.903729822835162</v>
+        <v>1.083463813866094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9149934153663645</v>
+        <v>1.072137598405156</v>
       </c>
       <c r="K12">
-        <v>0.9157464234974196</v>
+        <v>1.079258831294015</v>
       </c>
       <c r="L12">
-        <v>0.9216482515565726</v>
+        <v>1.074627950888349</v>
       </c>
       <c r="M12">
-        <v>0.9209671320892396</v>
+        <v>1.086906173083126</v>
       </c>
       <c r="N12">
-        <v>0.9678009360776015</v>
+        <v>1.026651958764889</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8802919131156883</v>
+        <v>1.065838882266835</v>
       </c>
       <c r="D13">
-        <v>0.8995829876171914</v>
+        <v>1.075925325096328</v>
       </c>
       <c r="E13">
-        <v>0.9055637304542712</v>
+        <v>1.071269707712811</v>
       </c>
       <c r="F13">
-        <v>0.9049532665503448</v>
+        <v>1.083601118588459</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9160796105276928</v>
+        <v>1.072257529400075</v>
       </c>
       <c r="K13">
-        <v>0.9168733181058442</v>
+        <v>1.079384306554309</v>
       </c>
       <c r="L13">
-        <v>0.9227041041664066</v>
+        <v>1.07474481057869</v>
       </c>
       <c r="M13">
-        <v>0.9221088241384292</v>
+        <v>1.087033852969397</v>
       </c>
       <c r="N13">
-        <v>0.9682076599279044</v>
+        <v>1.026695773845097</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8844197650457952</v>
+        <v>1.06629225359982</v>
       </c>
       <c r="D14">
-        <v>0.9034838002526679</v>
+        <v>1.07636795608323</v>
       </c>
       <c r="E14">
-        <v>0.9092262773835129</v>
+        <v>1.071684180769943</v>
       </c>
       <c r="F14">
-        <v>0.9089000015899336</v>
+        <v>1.084050729755418</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9195829441975979</v>
+        <v>1.072650206999685</v>
       </c>
       <c r="K14">
-        <v>0.920508097389575</v>
+        <v>1.079795150616917</v>
       </c>
       <c r="L14">
-        <v>0.9261098245100337</v>
+        <v>1.07512742936232</v>
       </c>
       <c r="M14">
-        <v>0.9257914817651913</v>
+        <v>1.087451920925396</v>
       </c>
       <c r="N14">
-        <v>0.9695201386469029</v>
+        <v>1.026839192118332</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8869144079263585</v>
+        <v>1.066571367774509</v>
       </c>
       <c r="D15">
-        <v>0.9058422001685514</v>
+        <v>1.076640463816594</v>
       </c>
       <c r="E15">
-        <v>0.9114408503270639</v>
+        <v>1.071939343556082</v>
       </c>
       <c r="F15">
-        <v>0.9112862665224564</v>
+        <v>1.084327538398556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9217006311588263</v>
+        <v>1.072891931335021</v>
       </c>
       <c r="K15">
-        <v>0.9227053737551688</v>
+        <v>1.080048068147762</v>
       </c>
       <c r="L15">
-        <v>0.9281686893276272</v>
+        <v>1.075362959575611</v>
       </c>
       <c r="M15">
-        <v>0.9280178122643586</v>
+        <v>1.087709289556107</v>
       </c>
       <c r="N15">
-        <v>0.9703139783415459</v>
+        <v>1.026927446157972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.90076854417664</v>
+        <v>1.068192576942075</v>
       </c>
       <c r="D16">
-        <v>0.9189526281345077</v>
+        <v>1.078223387008181</v>
       </c>
       <c r="E16">
-        <v>0.9237546006744316</v>
+        <v>1.073421371194165</v>
       </c>
       <c r="F16">
-        <v>0.9245529898614174</v>
+        <v>1.085935498133602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9334670699953186</v>
+        <v>1.074295594700405</v>
       </c>
       <c r="K16">
-        <v>0.9349159655675892</v>
+        <v>1.081516885796701</v>
       </c>
       <c r="L16">
-        <v>0.9396106975520548</v>
+        <v>1.076730621886968</v>
       </c>
       <c r="M16">
-        <v>0.9403914003213215</v>
+        <v>1.089204018390467</v>
       </c>
       <c r="N16">
-        <v>0.9747307709706026</v>
+        <v>1.02743944738014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.90894311151755</v>
+        <v>1.069206613332418</v>
       </c>
       <c r="D17">
-        <v>0.9266983482000967</v>
+        <v>1.079213551775578</v>
       </c>
       <c r="E17">
-        <v>0.9310316778286855</v>
+        <v>1.074348296271925</v>
       </c>
       <c r="F17">
-        <v>0.9323921714776749</v>
+        <v>1.086941371166384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.940413728340423</v>
+        <v>1.075173233824029</v>
       </c>
       <c r="K17">
-        <v>0.9421264832626879</v>
+        <v>1.082435400445557</v>
       </c>
       <c r="L17">
-        <v>0.9463676262809109</v>
+        <v>1.077585722482316</v>
       </c>
       <c r="M17">
-        <v>0.9476994108329267</v>
+        <v>1.090138790368429</v>
       </c>
       <c r="N17">
-        <v>0.9773426117721583</v>
+        <v>1.027759152391226</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9135488775323909</v>
+        <v>1.069797056351689</v>
       </c>
       <c r="D18">
-        <v>0.9310656488725494</v>
+        <v>1.079790121905401</v>
       </c>
       <c r="E18">
-        <v>0.9351353233165477</v>
+        <v>1.074887996393727</v>
       </c>
       <c r="F18">
-        <v>0.9368125414818107</v>
+        <v>1.087527105126905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9443287104210107</v>
+        <v>1.075684139027547</v>
       </c>
       <c r="K18">
-        <v>0.9461907463393399</v>
+        <v>1.082970150395693</v>
       </c>
       <c r="L18">
-        <v>0.9501762359071335</v>
+        <v>1.07808349668462</v>
       </c>
       <c r="M18">
-        <v>0.9518190399912494</v>
+        <v>1.090683024565268</v>
       </c>
       <c r="N18">
-        <v>0.9788157870985897</v>
+        <v>1.027945111006379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9150936892286955</v>
+        <v>1.069998209770691</v>
       </c>
       <c r="D19">
-        <v>0.9325309787280124</v>
+        <v>1.079986553595487</v>
       </c>
       <c r="E19">
-        <v>0.9365122772093443</v>
+        <v>1.075071859074925</v>
       </c>
       <c r="F19">
-        <v>0.9382957380654268</v>
+        <v>1.087726661713932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9456419769595512</v>
+        <v>1.075858175336502</v>
       </c>
       <c r="K19">
-        <v>0.9475541852232785</v>
+        <v>1.083152317668115</v>
       </c>
       <c r="L19">
-        <v>0.9514539066641703</v>
+        <v>1.078253058215992</v>
       </c>
       <c r="M19">
-        <v>0.9532011200675533</v>
+        <v>1.090868426015081</v>
       </c>
       <c r="N19">
-        <v>0.9793101345871695</v>
+        <v>1.028008430481286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9080833164970753</v>
+        <v>1.069097923520201</v>
       </c>
       <c r="D20">
-        <v>0.9258833194003611</v>
+        <v>1.079107417864151</v>
       </c>
       <c r="E20">
-        <v>0.9302658970891985</v>
+        <v>1.074248945633897</v>
       </c>
       <c r="F20">
-        <v>0.9315672687196639</v>
+        <v>1.086833551759722</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9396829663314843</v>
+        <v>1.075079175982125</v>
       </c>
       <c r="K20">
-        <v>0.9413679036517628</v>
+        <v>1.082336956776089</v>
       </c>
       <c r="L20">
-        <v>0.9456567630351926</v>
+        <v>1.07749408121301</v>
       </c>
       <c r="M20">
-        <v>0.946930530543842</v>
+        <v>1.090038602278287</v>
       </c>
       <c r="N20">
-        <v>0.9770677234968895</v>
+        <v>1.02772490498434</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8832145591289021</v>
+        <v>1.066158793583258</v>
       </c>
       <c r="D21">
-        <v>0.9023446757245125</v>
+        <v>1.076237656525636</v>
       </c>
       <c r="E21">
-        <v>0.908156682786081</v>
+        <v>1.071562172163621</v>
       </c>
       <c r="F21">
-        <v>0.9077474452529167</v>
+        <v>1.083918374670248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9185599767724173</v>
+        <v>1.072534618599805</v>
       </c>
       <c r="K21">
-        <v>0.9194467198938329</v>
+        <v>1.07967421260026</v>
       </c>
       <c r="L21">
-        <v>0.9251153207054442</v>
+        <v>1.075014802312156</v>
       </c>
       <c r="M21">
-        <v>0.9247160998827747</v>
+        <v>1.087328855607379</v>
       </c>
       <c r="N21">
-        <v>0.9691367943016366</v>
+        <v>1.026796982106493</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8655129439351504</v>
+        <v>1.064301165077551</v>
       </c>
       <c r="D22">
-        <v>0.885633694322689</v>
+        <v>1.074424122510584</v>
       </c>
       <c r="E22">
-        <v>0.8924706175058563</v>
+        <v>1.069863865158009</v>
       </c>
       <c r="F22">
-        <v>0.8908414463850748</v>
+        <v>1.082076294799279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9035453769984499</v>
+        <v>1.070925310595792</v>
       </c>
       <c r="K22">
-        <v>0.903870931924651</v>
+        <v>1.077990607768553</v>
       </c>
       <c r="L22">
-        <v>0.9105223444314926</v>
+        <v>1.073446686672099</v>
       </c>
       <c r="M22">
-        <v>0.9089370271920778</v>
+        <v>1.085615708601241</v>
       </c>
       <c r="N22">
-        <v>0.9635205412203609</v>
+        <v>1.026208742761088</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.875131629417096</v>
+        <v>1.065286867658084</v>
       </c>
       <c r="D23">
-        <v>0.8947093759909941</v>
+        <v>1.075386403314035</v>
       </c>
       <c r="E23">
-        <v>0.9009884908140142</v>
+        <v>1.070765044081621</v>
       </c>
       <c r="F23">
-        <v>0.9000225711476989</v>
+        <v>1.083053707678578</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9117014841173883</v>
+        <v>1.071779348693187</v>
       </c>
       <c r="K23">
-        <v>0.9123312990169631</v>
+        <v>1.078884031521249</v>
       </c>
       <c r="L23">
-        <v>0.9184485091829804</v>
+        <v>1.074278873237088</v>
       </c>
       <c r="M23">
-        <v>0.9175072965639801</v>
+        <v>1.086524792474834</v>
       </c>
       <c r="N23">
-        <v>0.966568891243669</v>
+        <v>1.026521042759848</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9084723169151977</v>
+        <v>1.06914703893907</v>
       </c>
       <c r="D24">
-        <v>0.9262520562620399</v>
+        <v>1.079155378223979</v>
       </c>
       <c r="E24">
-        <v>0.9306123512639857</v>
+        <v>1.074293840873249</v>
       </c>
       <c r="F24">
-        <v>0.9319404716158272</v>
+        <v>1.086882273717742</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9400135846270884</v>
+        <v>1.075121679780781</v>
       </c>
       <c r="K24">
-        <v>0.9417111056498725</v>
+        <v>1.082381442332871</v>
       </c>
       <c r="L24">
-        <v>0.9459783768261485</v>
+        <v>1.07753549301921</v>
       </c>
       <c r="M24">
-        <v>0.947278391559834</v>
+        <v>1.090083876058647</v>
       </c>
       <c r="N24">
-        <v>0.9771920873813056</v>
+        <v>1.027740381518992</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9408421283177123</v>
+        <v>1.073586464254427</v>
       </c>
       <c r="D25">
-        <v>0.9569904252899949</v>
+        <v>1.083490967031528</v>
       </c>
       <c r="E25">
-        <v>0.9595016789232504</v>
+        <v>1.078351356378977</v>
       </c>
       <c r="F25">
-        <v>0.9630580421602691</v>
+        <v>1.091287074335803</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9675386816759605</v>
+        <v>1.078960954643529</v>
       </c>
       <c r="K25">
-        <v>0.9702952416176687</v>
+        <v>1.08640079251871</v>
       </c>
       <c r="L25">
-        <v>0.9727629921467494</v>
+        <v>1.08127590110655</v>
       </c>
       <c r="M25">
-        <v>0.9762582490677421</v>
+        <v>1.094174859860206</v>
       </c>
       <c r="N25">
-        <v>0.9875625435939721</v>
+        <v>1.029135026410763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_177/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.077097194815221</v>
+        <v>0.9633281048025616</v>
       </c>
       <c r="D2">
-        <v>1.08692038159443</v>
+        <v>0.978403121114739</v>
       </c>
       <c r="E2">
-        <v>1.081559366048155</v>
+        <v>0.9796321885025038</v>
       </c>
       <c r="F2">
-        <v>1.094771762609404</v>
+        <v>0.9847434060996841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.081993357721314</v>
+        <v>0.986663863062838</v>
       </c>
       <c r="K2">
-        <v>1.089576980966634</v>
+        <v>0.9901717663095313</v>
       </c>
       <c r="L2">
-        <v>1.084229872939023</v>
+        <v>0.9913827664543922</v>
       </c>
       <c r="M2">
-        <v>1.097408259026152</v>
+        <v>0.9964194626049906</v>
       </c>
       <c r="N2">
-        <v>1.030231680001454</v>
+        <v>0.9947773773672258</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.079629872643857</v>
+        <v>0.9782423922764867</v>
       </c>
       <c r="D3">
-        <v>1.089394839400521</v>
+        <v>0.9926308389721745</v>
       </c>
       <c r="E3">
-        <v>1.083873224589527</v>
+        <v>0.9930081575293507</v>
       </c>
       <c r="F3">
-        <v>1.097286405895668</v>
+        <v>0.9991565130777316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.084178798154688</v>
+        <v>0.9993442923318976</v>
       </c>
       <c r="K3">
-        <v>1.091866945882647</v>
+        <v>1.003358886109564</v>
       </c>
       <c r="L3">
-        <v>1.086358584309257</v>
+        <v>1.00373128896466</v>
       </c>
       <c r="M3">
-        <v>1.099739819178847</v>
+        <v>1.009800197865437</v>
       </c>
       <c r="N3">
-        <v>1.031019165620976</v>
+        <v>0.9995582715736904</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.081261425383544</v>
+        <v>0.9873577861205918</v>
       </c>
       <c r="D4">
-        <v>1.090989084607025</v>
+        <v>1.00133614372463</v>
       </c>
       <c r="E4">
-        <v>1.085363605105732</v>
+        <v>1.001191677543616</v>
       </c>
       <c r="F4">
-        <v>1.098906681326331</v>
+        <v>1.007977033104007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.085585655038974</v>
+        <v>1.007090504337314</v>
       </c>
       <c r="K4">
-        <v>1.093341504606985</v>
+        <v>1.011418469374635</v>
       </c>
       <c r="L4">
-        <v>1.087728826230067</v>
+        <v>1.011275741314252</v>
       </c>
       <c r="M4">
-        <v>1.101241321932018</v>
+        <v>1.017980126384919</v>
       </c>
       <c r="N4">
-        <v>1.031524763764052</v>
+        <v>1.00247560741885</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.081945641130516</v>
+        <v>0.9910758289345227</v>
       </c>
       <c r="D5">
-        <v>1.091657701279923</v>
+        <v>1.004888946969512</v>
       </c>
       <c r="E5">
-        <v>1.085988567002672</v>
+        <v>1.004531289622729</v>
       </c>
       <c r="F5">
-        <v>1.099586248201469</v>
+        <v>1.011577266758465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.086175400095348</v>
+        <v>1.010248943134358</v>
       </c>
       <c r="K5">
-        <v>1.093959729160351</v>
+        <v>1.014705593864333</v>
       </c>
       <c r="L5">
-        <v>1.08830319924295</v>
+        <v>1.014352096113837</v>
       </c>
       <c r="M5">
-        <v>1.101870881242414</v>
+        <v>1.021316796430959</v>
       </c>
       <c r="N5">
-        <v>1.031736384892076</v>
+        <v>1.003664103122336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.082060426328191</v>
+        <v>0.9916937771519919</v>
       </c>
       <c r="D6">
-        <v>1.091769872243303</v>
+        <v>1.005479544782286</v>
       </c>
       <c r="E6">
-        <v>1.086093408635332</v>
+        <v>1.005086431298183</v>
       </c>
       <c r="F6">
-        <v>1.099700258182677</v>
+        <v>1.012175772701303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.086274322569442</v>
+        <v>1.010773811730092</v>
       </c>
       <c r="K6">
-        <v>1.094063434544671</v>
+        <v>1.015251900825426</v>
       </c>
       <c r="L6">
-        <v>1.088399541871633</v>
+        <v>1.014863333197612</v>
       </c>
       <c r="M6">
-        <v>1.101976490236201</v>
+        <v>1.021871364353387</v>
       </c>
       <c r="N6">
-        <v>1.031771862775023</v>
+        <v>1.003861540509316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.081270574479412</v>
+        <v>0.987407898326122</v>
       </c>
       <c r="D7">
-        <v>1.090998024936303</v>
+        <v>1.001384021047232</v>
       </c>
       <c r="E7">
-        <v>1.085371962082601</v>
+        <v>1.001236682980231</v>
       </c>
       <c r="F7">
-        <v>1.09891576794419</v>
+        <v>1.008025547992738</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.085593541854631</v>
+        <v>1.007133078889383</v>
       </c>
       <c r="K7">
-        <v>1.093349771895773</v>
+        <v>1.011462774946268</v>
       </c>
       <c r="L7">
-        <v>1.087736507563335</v>
+        <v>1.011317208752785</v>
       </c>
       <c r="M7">
-        <v>1.101249740646277</v>
+        <v>1.018025097942798</v>
       </c>
       <c r="N7">
-        <v>1.031527595099062</v>
+        <v>1.002491632243459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.077954657831719</v>
+        <v>0.9684885998181261</v>
       </c>
       <c r="D8">
-        <v>1.087758091969407</v>
+        <v>0.983323830298006</v>
       </c>
       <c r="E8">
-        <v>1.082342788236642</v>
+        <v>0.984258393718847</v>
       </c>
       <c r="F8">
-        <v>1.095623048461126</v>
+        <v>0.9897278364442109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.082733468584535</v>
+        <v>0.9910521146077138</v>
       </c>
       <c r="K8">
-        <v>1.090352403287819</v>
+        <v>0.9947345316814907</v>
       </c>
       <c r="L8">
-        <v>1.084950792022394</v>
+        <v>0.9956559032645997</v>
       </c>
       <c r="M8">
-        <v>1.098197732932352</v>
+        <v>1.00104877234347</v>
       </c>
       <c r="N8">
-        <v>1.030498643121221</v>
+        <v>0.9964324010482587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.072053773455259</v>
+        <v>0.9302346913052298</v>
       </c>
       <c r="D9">
-        <v>1.081993998353002</v>
+        <v>0.9469059782128256</v>
       </c>
       <c r="E9">
-        <v>1.076950624113911</v>
+        <v>0.9500223004996688</v>
       </c>
       <c r="F9">
-        <v>1.089766126209511</v>
+        <v>0.952847656423748</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.077636040674979</v>
+        <v>0.9585167092743553</v>
       </c>
       <c r="K9">
-        <v>1.085013493287195</v>
+        <v>0.9609235094978329</v>
       </c>
       <c r="L9">
-        <v>1.079985158096745</v>
+        <v>0.9639818494503297</v>
       </c>
       <c r="M9">
-        <v>1.092762741635</v>
+        <v>0.966755063806756</v>
       </c>
       <c r="N9">
-        <v>1.028654497441378</v>
+        <v>0.984160470945281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.068077840655972</v>
+        <v>0.899821196982131</v>
       </c>
       <c r="D10">
-        <v>1.078111355415872</v>
+        <v>0.9180554511099004</v>
       </c>
       <c r="E10">
-        <v>1.073316488630716</v>
+        <v>0.9229117977565194</v>
       </c>
       <c r="F10">
-        <v>1.085821691539815</v>
+        <v>0.923645041466241</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.074196275556258</v>
+        <v>0.9326621967671898</v>
       </c>
       <c r="K10">
-        <v>1.081412947653394</v>
+        <v>0.934080601761358</v>
       </c>
       <c r="L10">
-        <v>1.076633851925781</v>
+        <v>0.9388278914649271</v>
       </c>
       <c r="M10">
-        <v>1.089098243217101</v>
+        <v>0.9395448016871324</v>
       </c>
       <c r="N10">
-        <v>1.027403246845007</v>
+        <v>0.9744283415243703</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.066345544997929</v>
+        <v>0.8848987513345509</v>
       </c>
       <c r="D11">
-        <v>1.076419985771268</v>
+        <v>0.9039365709017974</v>
       </c>
       <c r="E11">
-        <v>1.071732899355284</v>
+        <v>0.9096514228212053</v>
       </c>
       <c r="F11">
-        <v>1.08410358040452</v>
+        <v>0.9093581159312569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.072696360970624</v>
+        <v>0.9199895259930827</v>
       </c>
       <c r="K11">
-        <v>1.079843441168943</v>
+        <v>0.9209299519268422</v>
       </c>
       <c r="L11">
-        <v>1.075172400775277</v>
+        <v>0.9265051022598049</v>
       </c>
       <c r="M11">
-        <v>1.087501061105504</v>
+        <v>0.9262189078994999</v>
       </c>
       <c r="N11">
-        <v>1.026856044875795</v>
+        <v>0.9696725232728252</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.065700425458805</v>
+        <v>0.8790118481785852</v>
       </c>
       <c r="D12">
-        <v>1.075790150631391</v>
+        <v>0.8983737377509913</v>
       </c>
       <c r="E12">
-        <v>1.071143128613404</v>
+        <v>0.9044284406152209</v>
       </c>
       <c r="F12">
-        <v>1.083463813866094</v>
+        <v>0.9037298228351645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.072137598405156</v>
+        <v>0.9149934153663666</v>
       </c>
       <c r="K12">
-        <v>1.079258831294015</v>
+        <v>0.915746423497422</v>
       </c>
       <c r="L12">
-        <v>1.074627950888349</v>
+        <v>0.9216482515565745</v>
       </c>
       <c r="M12">
-        <v>1.086906173083126</v>
+        <v>0.9209671320892421</v>
       </c>
       <c r="N12">
-        <v>1.026651958764889</v>
+        <v>0.9678009360776021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.065838882266835</v>
+        <v>0.8802919131156909</v>
       </c>
       <c r="D13">
-        <v>1.075925325096328</v>
+        <v>0.8995829876171941</v>
       </c>
       <c r="E13">
-        <v>1.071269707712811</v>
+        <v>0.9055637304542735</v>
       </c>
       <c r="F13">
-        <v>1.083601118588459</v>
+        <v>0.9049532665503478</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.072257529400075</v>
+        <v>0.9160796105276952</v>
       </c>
       <c r="K13">
-        <v>1.079384306554309</v>
+        <v>0.9168733181058469</v>
       </c>
       <c r="L13">
-        <v>1.07474481057869</v>
+        <v>0.922704104166409</v>
       </c>
       <c r="M13">
-        <v>1.087033852969397</v>
+        <v>0.922108824138432</v>
       </c>
       <c r="N13">
-        <v>1.026695773845097</v>
+        <v>0.9682076599279054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.06629225359982</v>
+        <v>0.8844197650457977</v>
       </c>
       <c r="D14">
-        <v>1.07636795608323</v>
+        <v>0.9034838002526705</v>
       </c>
       <c r="E14">
-        <v>1.071684180769943</v>
+        <v>0.909226277383515</v>
       </c>
       <c r="F14">
-        <v>1.084050729755418</v>
+        <v>0.9089000015899362</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.072650206999685</v>
+        <v>0.9195829441976</v>
       </c>
       <c r="K14">
-        <v>1.079795150616917</v>
+        <v>0.9205080973895772</v>
       </c>
       <c r="L14">
-        <v>1.07512742936232</v>
+        <v>0.926109824510036</v>
       </c>
       <c r="M14">
-        <v>1.087451920925396</v>
+        <v>0.9257914817651939</v>
       </c>
       <c r="N14">
-        <v>1.026839192118332</v>
+        <v>0.9695201386469037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.066571367774509</v>
+        <v>0.8869144079263604</v>
       </c>
       <c r="D15">
-        <v>1.076640463816594</v>
+        <v>0.9058422001685528</v>
       </c>
       <c r="E15">
-        <v>1.071939343556082</v>
+        <v>0.9114408503270652</v>
       </c>
       <c r="F15">
-        <v>1.084327538398556</v>
+        <v>0.9112862665224584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.072891931335021</v>
+        <v>0.9217006311588278</v>
       </c>
       <c r="K15">
-        <v>1.080048068147762</v>
+        <v>0.9227053737551701</v>
       </c>
       <c r="L15">
-        <v>1.075362959575611</v>
+        <v>0.9281686893276289</v>
       </c>
       <c r="M15">
-        <v>1.087709289556107</v>
+        <v>0.9280178122643604</v>
       </c>
       <c r="N15">
-        <v>1.026927446157972</v>
+        <v>0.9703139783415465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.068192576942075</v>
+        <v>0.9007685441766401</v>
       </c>
       <c r="D16">
-        <v>1.078223387008181</v>
+        <v>0.9189526281345077</v>
       </c>
       <c r="E16">
-        <v>1.073421371194165</v>
+        <v>0.923754600674432</v>
       </c>
       <c r="F16">
-        <v>1.085935498133602</v>
+        <v>0.9245529898614175</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.074295594700405</v>
+        <v>0.933467069995319</v>
       </c>
       <c r="K16">
-        <v>1.081516885796701</v>
+        <v>0.9349159655675893</v>
       </c>
       <c r="L16">
-        <v>1.076730621886968</v>
+        <v>0.9396106975520555</v>
       </c>
       <c r="M16">
-        <v>1.089204018390467</v>
+        <v>0.9403914003213216</v>
       </c>
       <c r="N16">
-        <v>1.02743944738014</v>
+        <v>0.9747307709706027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.069206613332418</v>
+        <v>0.9089431115175506</v>
       </c>
       <c r="D17">
-        <v>1.079213551775578</v>
+        <v>0.926698348200097</v>
       </c>
       <c r="E17">
-        <v>1.074348296271925</v>
+        <v>0.9310316778286858</v>
       </c>
       <c r="F17">
-        <v>1.086941371166384</v>
+        <v>0.9323921714776754</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.075173233824029</v>
+        <v>0.9404137283404236</v>
       </c>
       <c r="K17">
-        <v>1.082435400445557</v>
+        <v>0.9421264832626882</v>
       </c>
       <c r="L17">
-        <v>1.077585722482316</v>
+        <v>0.9463676262809112</v>
       </c>
       <c r="M17">
-        <v>1.090138790368429</v>
+        <v>0.947699410832927</v>
       </c>
       <c r="N17">
-        <v>1.027759152391226</v>
+        <v>0.9773426117721584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.069797056351689</v>
+        <v>0.9135488775323878</v>
       </c>
       <c r="D18">
-        <v>1.079790121905401</v>
+        <v>0.9310656488725462</v>
       </c>
       <c r="E18">
-        <v>1.074887996393727</v>
+        <v>0.9351353233165443</v>
       </c>
       <c r="F18">
-        <v>1.087527105126905</v>
+        <v>0.9368125414818069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.075684139027547</v>
+        <v>0.9443287104210075</v>
       </c>
       <c r="K18">
-        <v>1.082970150395693</v>
+        <v>0.9461907463393366</v>
       </c>
       <c r="L18">
-        <v>1.07808349668462</v>
+        <v>0.9501762359071301</v>
       </c>
       <c r="M18">
-        <v>1.090683024565268</v>
+        <v>0.951819039991246</v>
       </c>
       <c r="N18">
-        <v>1.027945111006379</v>
+        <v>0.9788157870985885</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.069998209770691</v>
+        <v>0.9150936892286943</v>
       </c>
       <c r="D19">
-        <v>1.079986553595487</v>
+        <v>0.9325309787280111</v>
       </c>
       <c r="E19">
-        <v>1.075071859074925</v>
+        <v>0.9365122772093432</v>
       </c>
       <c r="F19">
-        <v>1.087726661713932</v>
+        <v>0.9382957380654255</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.075858175336502</v>
+        <v>0.9456419769595501</v>
       </c>
       <c r="K19">
-        <v>1.083152317668115</v>
+        <v>0.9475541852232772</v>
       </c>
       <c r="L19">
-        <v>1.078253058215992</v>
+        <v>0.9514539066641692</v>
       </c>
       <c r="M19">
-        <v>1.090868426015081</v>
+        <v>0.9532011200675525</v>
       </c>
       <c r="N19">
-        <v>1.028008430481286</v>
+        <v>0.9793101345871692</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.069097923520201</v>
+        <v>0.9080833164970733</v>
       </c>
       <c r="D20">
-        <v>1.079107417864151</v>
+        <v>0.9258833194003586</v>
       </c>
       <c r="E20">
-        <v>1.074248945633897</v>
+        <v>0.9302658970891965</v>
       </c>
       <c r="F20">
-        <v>1.086833551759722</v>
+        <v>0.9315672687196617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.075079175982125</v>
+        <v>0.9396829663314822</v>
       </c>
       <c r="K20">
-        <v>1.082336956776089</v>
+        <v>0.9413679036517605</v>
       </c>
       <c r="L20">
-        <v>1.07749408121301</v>
+        <v>0.9456567630351906</v>
       </c>
       <c r="M20">
-        <v>1.090038602278287</v>
+        <v>0.9469305305438397</v>
       </c>
       <c r="N20">
-        <v>1.02772490498434</v>
+        <v>0.9770677234968885</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.066158793583258</v>
+        <v>0.8832145591288992</v>
       </c>
       <c r="D21">
-        <v>1.076237656525636</v>
+        <v>0.9023446757245096</v>
       </c>
       <c r="E21">
-        <v>1.071562172163621</v>
+        <v>0.908156682786078</v>
       </c>
       <c r="F21">
-        <v>1.083918374670248</v>
+        <v>0.9077474452529134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.072534618599805</v>
+        <v>0.9185599767724145</v>
       </c>
       <c r="K21">
-        <v>1.07967421260026</v>
+        <v>0.9194467198938298</v>
       </c>
       <c r="L21">
-        <v>1.075014802312156</v>
+        <v>0.9251153207054414</v>
       </c>
       <c r="M21">
-        <v>1.087328855607379</v>
+        <v>0.9247160998827714</v>
       </c>
       <c r="N21">
-        <v>1.026796982106493</v>
+        <v>0.9691367943016358</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.064301165077551</v>
+        <v>0.8655129439351507</v>
       </c>
       <c r="D22">
-        <v>1.074424122510584</v>
+        <v>0.8856336943226892</v>
       </c>
       <c r="E22">
-        <v>1.069863865158009</v>
+        <v>0.8924706175058565</v>
       </c>
       <c r="F22">
-        <v>1.082076294799279</v>
+        <v>0.890841446385075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.070925310595792</v>
+        <v>0.9035453769984505</v>
       </c>
       <c r="K22">
-        <v>1.077990607768553</v>
+        <v>0.9038709319246514</v>
       </c>
       <c r="L22">
-        <v>1.073446686672099</v>
+        <v>0.9105223444314927</v>
       </c>
       <c r="M22">
-        <v>1.085615708601241</v>
+        <v>0.9089370271920781</v>
       </c>
       <c r="N22">
-        <v>1.026208742761088</v>
+        <v>0.9635205412203609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.065286867658084</v>
+        <v>0.87513162941709</v>
       </c>
       <c r="D23">
-        <v>1.075386403314035</v>
+        <v>0.8947093759909881</v>
       </c>
       <c r="E23">
-        <v>1.070765044081621</v>
+        <v>0.9009884908140089</v>
       </c>
       <c r="F23">
-        <v>1.083053707678578</v>
+        <v>0.900022571147693</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.071779348693187</v>
+        <v>0.9117014841173828</v>
       </c>
       <c r="K23">
-        <v>1.078884031521249</v>
+        <v>0.9123312990169573</v>
       </c>
       <c r="L23">
-        <v>1.074278873237088</v>
+        <v>0.9184485091829748</v>
       </c>
       <c r="M23">
-        <v>1.086524792474834</v>
+        <v>0.9175072965639743</v>
       </c>
       <c r="N23">
-        <v>1.026521042759848</v>
+        <v>0.9665688912436669</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.06914703893907</v>
+        <v>0.9084723169151975</v>
       </c>
       <c r="D24">
-        <v>1.079155378223979</v>
+        <v>0.9262520562620393</v>
       </c>
       <c r="E24">
-        <v>1.074293840873249</v>
+        <v>0.9306123512639853</v>
       </c>
       <c r="F24">
-        <v>1.086882273717742</v>
+        <v>0.9319404716158267</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.075121679780781</v>
+        <v>0.9400135846270878</v>
       </c>
       <c r="K24">
-        <v>1.082381442332871</v>
+        <v>0.9417111056498721</v>
       </c>
       <c r="L24">
-        <v>1.07753549301921</v>
+        <v>0.945978376826148</v>
       </c>
       <c r="M24">
-        <v>1.090083876058647</v>
+        <v>0.9472783915598334</v>
       </c>
       <c r="N24">
-        <v>1.027740381518992</v>
+        <v>0.9771920873813054</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.073586464254427</v>
+        <v>0.940842128317712</v>
       </c>
       <c r="D25">
-        <v>1.083490967031528</v>
+        <v>0.9569904252899943</v>
       </c>
       <c r="E25">
-        <v>1.078351356378977</v>
+        <v>0.9595016789232502</v>
       </c>
       <c r="F25">
-        <v>1.091287074335803</v>
+        <v>0.9630580421602686</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.078960954643529</v>
+        <v>0.96753868167596</v>
       </c>
       <c r="K25">
-        <v>1.08640079251871</v>
+        <v>0.970295241617668</v>
       </c>
       <c r="L25">
-        <v>1.08127590110655</v>
+        <v>0.9727629921467491</v>
       </c>
       <c r="M25">
-        <v>1.094174859860206</v>
+        <v>0.9762582490677417</v>
       </c>
       <c r="N25">
-        <v>1.029135026410763</v>
+        <v>0.987562543593972</v>
       </c>
     </row>
   </sheetData>
